--- a/files/alcaldes.xlsx
+++ b/files/alcaldes.xlsx
@@ -1,21 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Dropbox/GitHub/tresquintos.github.io/files/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03B14F7A-CB35-F84C-A9C5-D8EAE0E4AA78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
@@ -31,619 +24,619 @@
     <t>comuna_nom</t>
   </si>
   <si>
+    <t>Codegua</t>
+  </si>
+  <si>
+    <t>Villa Alegre</t>
+  </si>
+  <si>
+    <t>San Pedro de la Paz</t>
+  </si>
+  <si>
+    <t>Tortel</t>
+  </si>
+  <si>
+    <t>Catemu</t>
+  </si>
+  <si>
+    <t>Río Negro</t>
+  </si>
+  <si>
+    <t>Cochamó</t>
+  </si>
+  <si>
+    <t>Río Claro</t>
+  </si>
+  <si>
+    <t>Hualañé</t>
+  </si>
+  <si>
+    <t>Santa María</t>
+  </si>
+  <si>
+    <t>Pirque</t>
+  </si>
+  <si>
+    <t>Vallenar</t>
+  </si>
+  <si>
+    <t>Illapel</t>
+  </si>
+  <si>
+    <t>Paine</t>
+  </si>
+  <si>
     <t>Rancagua</t>
   </si>
   <si>
+    <t>El Tabo</t>
+  </si>
+  <si>
+    <t>Los Muermos</t>
+  </si>
+  <si>
+    <t>Calera de Tango</t>
+  </si>
+  <si>
+    <t>Chillán Viejo</t>
+  </si>
+  <si>
+    <t>Lo Barnechea</t>
+  </si>
+  <si>
+    <t>Peumo</t>
+  </si>
+  <si>
+    <t>Natales</t>
+  </si>
+  <si>
+    <t>Santo Domingo</t>
+  </si>
+  <si>
+    <t>Hualaihué</t>
+  </si>
+  <si>
+    <t>La Estrella</t>
+  </si>
+  <si>
+    <t>Corral</t>
+  </si>
+  <si>
+    <t>Lampa</t>
+  </si>
+  <si>
+    <t>Coínco</t>
+  </si>
+  <si>
+    <t>Putaendo</t>
+  </si>
+  <si>
+    <t>Petorca</t>
+  </si>
+  <si>
+    <t>Navidad</t>
+  </si>
+  <si>
+    <t>San Carlos</t>
+  </si>
+  <si>
+    <t>Marchihue</t>
+  </si>
+  <si>
+    <t>Diego de Almagro</t>
+  </si>
+  <si>
+    <t>Camarones</t>
+  </si>
+  <si>
+    <t>Osorno</t>
+  </si>
+  <si>
     <t>Río Hurtado</t>
   </si>
   <si>
-    <t>San Pedro de la Paz</t>
-  </si>
-  <si>
-    <t>Vallenar</t>
+    <t>Pudahuel</t>
+  </si>
+  <si>
+    <t>Curacautín</t>
+  </si>
+  <si>
+    <t>Padre Hurtado</t>
+  </si>
+  <si>
+    <t>Machalí</t>
+  </si>
+  <si>
+    <t>Villa Alemana</t>
+  </si>
+  <si>
+    <t>Andacollo</t>
+  </si>
+  <si>
+    <t>Cauquenes</t>
+  </si>
+  <si>
+    <t>Padre las Casas</t>
+  </si>
+  <si>
+    <t>Quilicura</t>
+  </si>
+  <si>
+    <t>Pencahue</t>
+  </si>
+  <si>
+    <t>Treguaco</t>
+  </si>
+  <si>
+    <t>Quillota</t>
+  </si>
+  <si>
+    <t>Perquenco</t>
+  </si>
+  <si>
+    <t>Curaco de Vélez</t>
+  </si>
+  <si>
+    <t>San José de Maipo</t>
+  </si>
+  <si>
+    <t>Panquehue</t>
+  </si>
+  <si>
+    <t>Río Bueno</t>
+  </si>
+  <si>
+    <t>La Cruz</t>
+  </si>
+  <si>
+    <t>Nueva Imperial</t>
+  </si>
+  <si>
+    <t>Lolol</t>
+  </si>
+  <si>
+    <t>Colina</t>
+  </si>
+  <si>
+    <t>Arauco</t>
+  </si>
+  <si>
+    <t>Quilpué</t>
+  </si>
+  <si>
+    <t>Temuco</t>
+  </si>
+  <si>
+    <t>El Quisco</t>
+  </si>
+  <si>
+    <t>Quinta de Tilcoco</t>
+  </si>
+  <si>
+    <t>Calle Larga</t>
+  </si>
+  <si>
+    <t>San Bernardo</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>Villarrica</t>
+  </si>
+  <si>
+    <t>Cochrane</t>
+  </si>
+  <si>
+    <t>Paillaco</t>
+  </si>
+  <si>
+    <t>Vitacura</t>
+  </si>
+  <si>
+    <t>Chépica</t>
+  </si>
+  <si>
+    <t>San Esteban</t>
+  </si>
+  <si>
+    <t>Hualqui</t>
+  </si>
+  <si>
+    <t>Loncoche</t>
+  </si>
+  <si>
+    <t>Laguna Blanca</t>
+  </si>
+  <si>
+    <t>Estación Central</t>
+  </si>
+  <si>
+    <t>Huasco</t>
+  </si>
+  <si>
+    <t>La Ligua</t>
+  </si>
+  <si>
+    <t>Papudo</t>
   </si>
   <si>
     <t>Pichidegua</t>
   </si>
   <si>
-    <t>Corral</t>
-  </si>
-  <si>
-    <t>El Tabo</t>
+    <t>Coltauco</t>
+  </si>
+  <si>
+    <t>Calbuco</t>
+  </si>
+  <si>
+    <t>El Bosque</t>
+  </si>
+  <si>
+    <t>Paredones</t>
+  </si>
+  <si>
+    <t>Teno</t>
+  </si>
+  <si>
+    <t>La Cisterna</t>
+  </si>
+  <si>
+    <t>San Joaquín</t>
+  </si>
+  <si>
+    <t>Chillán</t>
   </si>
   <si>
     <t>Mostazal</t>
   </si>
   <si>
-    <t>Hualañé</t>
-  </si>
-  <si>
-    <t>San Carlos</t>
-  </si>
-  <si>
-    <t>La Estrella</t>
-  </si>
-  <si>
-    <t>Paine</t>
-  </si>
-  <si>
-    <t>Illapel</t>
-  </si>
-  <si>
-    <t>La Ligua</t>
-  </si>
-  <si>
-    <t>Lolol</t>
-  </si>
-  <si>
-    <t>Curacautín</t>
-  </si>
-  <si>
-    <t>Temuco</t>
-  </si>
-  <si>
-    <t>Camarones</t>
-  </si>
-  <si>
-    <t>Natales</t>
-  </si>
-  <si>
-    <t>Padre Hurtado</t>
-  </si>
-  <si>
-    <t>Cauquenes</t>
-  </si>
-  <si>
-    <t>El Quisco</t>
-  </si>
-  <si>
-    <t>Machalí</t>
-  </si>
-  <si>
-    <t>Paillaco</t>
-  </si>
-  <si>
-    <t>Pencahue</t>
-  </si>
-  <si>
-    <t>Andacollo</t>
-  </si>
-  <si>
-    <t>Osorno</t>
-  </si>
-  <si>
-    <t>Cochrane</t>
-  </si>
-  <si>
-    <t>Petorca</t>
-  </si>
-  <si>
-    <t>Padre las Casas</t>
-  </si>
-  <si>
-    <t>San Bernardo</t>
-  </si>
-  <si>
-    <t>Lo Barnechea</t>
-  </si>
-  <si>
-    <t>Estación Central</t>
-  </si>
-  <si>
-    <t>Calle Larga</t>
-  </si>
-  <si>
-    <t>Teno</t>
-  </si>
-  <si>
-    <t>Peumo</t>
-  </si>
-  <si>
-    <t>Hualqui</t>
-  </si>
-  <si>
-    <t>Río Claro</t>
-  </si>
-  <si>
-    <t>Putaendo</t>
-  </si>
-  <si>
-    <t>Villa Alemana</t>
-  </si>
-  <si>
-    <t>Codegua</t>
-  </si>
-  <si>
-    <t>Pirque</t>
-  </si>
-  <si>
-    <t>Coltauco</t>
-  </si>
-  <si>
-    <t>Santo Domingo</t>
-  </si>
-  <si>
-    <t>Huasco</t>
-  </si>
-  <si>
-    <t>Río Negro</t>
-  </si>
-  <si>
-    <t>Chillán Viejo</t>
-  </si>
-  <si>
-    <t>Chillán</t>
-  </si>
-  <si>
-    <t>Villarrica</t>
-  </si>
-  <si>
-    <t>Panquehue</t>
-  </si>
-  <si>
-    <t>Lampa</t>
-  </si>
-  <si>
-    <t>Río Bueno</t>
-  </si>
-  <si>
-    <t>Chépica</t>
-  </si>
-  <si>
-    <t>Arauco</t>
+    <t>Camiña</t>
+  </si>
+  <si>
+    <t>Río Verde</t>
+  </si>
+  <si>
+    <t>Hijuelas</t>
+  </si>
+  <si>
+    <t>Viña del Mar</t>
   </si>
   <si>
     <t>Chanco</t>
   </si>
   <si>
-    <t>Quilicura</t>
-  </si>
-  <si>
-    <t>San José de Maipo</t>
-  </si>
-  <si>
-    <t>Hualaihué</t>
-  </si>
-  <si>
-    <t>Cochamó</t>
-  </si>
-  <si>
-    <t>San Joaquín</t>
-  </si>
-  <si>
-    <t>Viña del Mar</t>
-  </si>
-  <si>
-    <t>Quilpué</t>
-  </si>
-  <si>
-    <t>Paredones</t>
-  </si>
-  <si>
-    <t>Tortel</t>
-  </si>
-  <si>
-    <t>San Esteban</t>
-  </si>
-  <si>
-    <t>Treguaco</t>
-  </si>
-  <si>
-    <t>Los Muermos</t>
-  </si>
-  <si>
-    <t>Loncoche</t>
-  </si>
-  <si>
-    <t>Catemu</t>
-  </si>
-  <si>
-    <t>Diego de Almagro</t>
-  </si>
-  <si>
-    <t>San Antonio</t>
-  </si>
-  <si>
-    <t>Santa María</t>
-  </si>
-  <si>
-    <t>Marchihue</t>
-  </si>
-  <si>
-    <t>Hijuelas</t>
-  </si>
-  <si>
-    <t>La Cisterna</t>
-  </si>
-  <si>
-    <t>Perquenco</t>
-  </si>
-  <si>
-    <t>Villa Alegre</t>
-  </si>
-  <si>
-    <t>Colina</t>
-  </si>
-  <si>
-    <t>Quinta de Tilcoco</t>
-  </si>
-  <si>
-    <t>Calera de Tango</t>
+    <t>San Nicolás</t>
   </si>
   <si>
     <t>Santa Juana</t>
   </si>
   <si>
-    <t>Curaco de Vélez</t>
-  </si>
-  <si>
-    <t>La Cruz</t>
-  </si>
-  <si>
-    <t>Papudo</t>
-  </si>
-  <si>
-    <t>Río Verde</t>
-  </si>
-  <si>
-    <t>Navidad</t>
-  </si>
-  <si>
-    <t>San Nicolás</t>
-  </si>
-  <si>
-    <t>Vitacura</t>
-  </si>
-  <si>
-    <t>Calbuco</t>
-  </si>
-  <si>
-    <t>Nueva Imperial</t>
-  </si>
-  <si>
-    <t>Laguna Blanca</t>
-  </si>
-  <si>
-    <t>Coínco</t>
-  </si>
-  <si>
-    <t>Pudahuel</t>
-  </si>
-  <si>
-    <t>Camiña</t>
-  </si>
-  <si>
-    <t>Quillota</t>
-  </si>
-  <si>
-    <t>El Bosque</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
+    <t>Ana María Silva Gutierrez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arturo Del Carmen Palma Vilches  </t>
+  </si>
+  <si>
+    <t>Audito Retamal Lazo</t>
+  </si>
+  <si>
+    <t>Bernardo Lopez Sierra</t>
+  </si>
+  <si>
+    <t>Boris Luksic Nieto</t>
+  </si>
+  <si>
+    <t>Carlos Javier Schwalm Urzua</t>
+  </si>
+  <si>
+    <t>Carlos Soto Sotomayor</t>
+  </si>
+  <si>
+    <t>Claudio Arturo Guajardo Oyarce</t>
+  </si>
+  <si>
+    <t>Claudio Esteban Pucher Lizama</t>
+  </si>
+  <si>
+    <t>Claudio Zurita Ibarra</t>
+  </si>
+  <si>
+    <t>Cristian Balmaceda Undurraga</t>
+  </si>
+  <si>
+    <t>Cristian Hernando Tapia Ramos</t>
+  </si>
+  <si>
+    <t>Denis Cortes Vargas</t>
+  </si>
+  <si>
+    <t>Diego Alfonso Vergara Rodriguez</t>
+  </si>
+  <si>
     <t>Eduardo Soto Romero</t>
   </si>
   <si>
+    <t>Emilio Osvaldo Jorquera Romero</t>
+  </si>
+  <si>
+    <t>Emilio Rafael Gonzalez Burgos</t>
+  </si>
+  <si>
+    <t>Erasmo Agustin Valenzuela Santibañez</t>
+  </si>
+  <si>
+    <t>Felipe Aylwin Lagos</t>
+  </si>
+  <si>
+    <t>Felipe Guevara Stephens</t>
+  </si>
+  <si>
+    <t>Fermin Alejandro Carreño Carreño</t>
+  </si>
+  <si>
+    <t>Fernando Paredes Mansilla</t>
+  </si>
+  <si>
+    <t>Fernando Rodriguez Larrain</t>
+  </si>
+  <si>
+    <t>Freddy Ibacache Muñoz</t>
+  </si>
+  <si>
+    <t>Gaston Octavio Fernandez Mori</t>
+  </si>
+  <si>
+    <t>Gaston Perez Gonzalez</t>
+  </si>
+  <si>
+    <t>Graciela Ortuzar Novoa</t>
+  </si>
+  <si>
+    <t>Gregorio Enrique Valenzuela Abarca</t>
+  </si>
+  <si>
+    <t>Guillermo Reyes Cortez</t>
+  </si>
+  <si>
+    <t>Gustavo Fernando Valdenegro Rubillo</t>
+  </si>
+  <si>
+    <t>Horacio Maldonado Mondaca</t>
+  </si>
+  <si>
+    <t>Hugo Naim Gebrie Asfura</t>
+  </si>
+  <si>
+    <t>Héctor Hernan Flores Peñaloza</t>
+  </si>
+  <si>
+    <t>Isaias Zavala Torres</t>
+  </si>
+  <si>
+    <t>Ivan Martin Romero Menacho</t>
+  </si>
+  <si>
+    <t>Jaime Alberto Bertin Valenzuela</t>
+  </si>
+  <si>
     <t>Jaime Gary Valenzuela Rojas</t>
   </si>
   <si>
-    <t>Audito Retamal Lazo</t>
-  </si>
-  <si>
-    <t>Cristian Hernando Tapia Ramos</t>
+    <t>Johnny Carrasco Cerda</t>
+  </si>
+  <si>
+    <t>Jorge Rolando Saquel Albarran</t>
+  </si>
+  <si>
+    <t>Jose Miguel Arellano Merino</t>
+  </si>
+  <si>
+    <t>Jose Miguel Urrutia Celis</t>
+  </si>
+  <si>
+    <t>Jose Sabat Marcos</t>
+  </si>
+  <si>
+    <t>Juan Carlos Alfaro Aravena</t>
+  </si>
+  <si>
+    <t>Juan Carlos Muñoz Rojas</t>
+  </si>
+  <si>
+    <t>Juan Eduardo Delgado Castro</t>
+  </si>
+  <si>
+    <t>Juan Elviro Carrasco Contreras</t>
+  </si>
+  <si>
+    <t>Lucy Lara Leiva</t>
+  </si>
+  <si>
+    <t>Luis Alberto Cuevas Ibarra</t>
+  </si>
+  <si>
+    <t>Luis Alberto Mella Gajardo</t>
+  </si>
+  <si>
+    <t>Luis Alberto Muñoz Perez</t>
+  </si>
+  <si>
+    <t>Luis Nolberto Curumilla Sotomayor</t>
+  </si>
+  <si>
+    <t>Luis Pezoa Alvarez</t>
+  </si>
+  <si>
+    <t>Luis Pradenas Moran</t>
+  </si>
+  <si>
+    <t>Luis Reyes Alvarez</t>
+  </si>
+  <si>
+    <t>Maite Larrondo Laborde</t>
+  </si>
+  <si>
+    <t>Manuel Adolfo Salas Trautmann</t>
+  </si>
+  <si>
+    <t>Marco Antonio Marin Rodriguez</t>
+  </si>
+  <si>
+    <t>Mario Olavarria Rodriguez</t>
+  </si>
+  <si>
+    <t>Mauricio Alarcon Guzman</t>
+  </si>
+  <si>
+    <t>Mauricio Viñambres Adasme</t>
+  </si>
+  <si>
+    <t>Miguel Ángel Becker Alvear</t>
+  </si>
+  <si>
+    <t>Natalia Andrea Carrasco Pizarro</t>
+  </si>
+  <si>
+    <t>Nelson Barrios Orostegui</t>
+  </si>
+  <si>
+    <t>Nelson Venegas Salazar</t>
+  </si>
+  <si>
+    <t>Nora Cuevas Contreras</t>
+  </si>
+  <si>
+    <t>Omar Vera Castro</t>
+  </si>
+  <si>
+    <t>Pablo Astete Mermoud</t>
+  </si>
+  <si>
+    <t>Patricio Ulloa Georgia</t>
+  </si>
+  <si>
+    <t>Ramona Reyes Painequeo</t>
+  </si>
+  <si>
+    <t>Raul Torrealba Del Pedregal</t>
+  </si>
+  <si>
+    <t>Rebeca Cofre Calderon</t>
+  </si>
+  <si>
+    <t>Rene Alejandro Mardones Valencia</t>
+  </si>
+  <si>
+    <t>Ricardo Fuentes Palma</t>
+  </si>
+  <si>
+    <t>Ricardo Peña Riquelme</t>
+  </si>
+  <si>
+    <t>Ricardo Ritter Rodriguez</t>
+  </si>
+  <si>
+    <t>Rodrigo Delgado Mocarquer</t>
+  </si>
+  <si>
+    <t>Rodrigo Loyola Morenilla</t>
+  </si>
+  <si>
+    <t>Rodrigo Sanchez Villalobos</t>
+  </si>
+  <si>
+    <t>Rosa Prieto Valdés</t>
   </si>
   <si>
     <t>Ruben Adolfo Ceron Gonzalez</t>
   </si>
   <si>
-    <t>Gaston Perez Gonzalez</t>
-  </si>
-  <si>
-    <t>Emilio Osvaldo Jorquera Romero</t>
+    <t>Ruben Jorquera Vidal</t>
+  </si>
+  <si>
+    <t>Ruben Rolando Cardenas Gómez</t>
+  </si>
+  <si>
+    <t>Sadi Leonardo Melo Moya</t>
+  </si>
+  <si>
+    <t>Sammy Ormazabal Lopez</t>
+  </si>
+  <si>
+    <t>Sandra Valenzuela Perez</t>
+  </si>
+  <si>
+    <t>Santiago Rebolledo Pizarro</t>
+  </si>
+  <si>
+    <t>Sergio Echeverria Garcia</t>
+  </si>
+  <si>
+    <t>Sergio Juan Zarzar Andonie</t>
   </si>
   <si>
     <t>Sergio Medel Acosta</t>
   </si>
   <si>
-    <t>Claudio Esteban Pucher Lizama</t>
-  </si>
-  <si>
-    <t>Hugo Naim Gebrie Asfura</t>
-  </si>
-  <si>
-    <t>Gaston Octavio Fernandez Mori</t>
-  </si>
-  <si>
-    <t>Diego Alfonso Vergara Rodriguez</t>
-  </si>
-  <si>
-    <t>Denis Cortes Vargas</t>
-  </si>
-  <si>
-    <t>Rodrigo Sanchez Villalobos</t>
-  </si>
-  <si>
-    <t>Marco Antonio Marin Rodriguez</t>
-  </si>
-  <si>
-    <t>Jorge Rolando Saquel Albarran</t>
-  </si>
-  <si>
-    <t>Miguel Ángel Becker Alvear</t>
-  </si>
-  <si>
-    <t>Ivan Martin Romero Menacho</t>
-  </si>
-  <si>
-    <t>Fernando Paredes Mansilla</t>
-  </si>
-  <si>
-    <t>Jose Miguel Arellano Merino</t>
-  </si>
-  <si>
-    <t>Juan Carlos Muñoz Rojas</t>
-  </si>
-  <si>
-    <t>Natalia Andrea Carrasco Pizarro</t>
-  </si>
-  <si>
-    <t>Jose Miguel Urrutia Celis</t>
-  </si>
-  <si>
-    <t>Ramona Reyes Painequeo</t>
-  </si>
-  <si>
-    <t>Lucy Lara Leiva</t>
-  </si>
-  <si>
-    <t>Juan Carlos Alfaro Aravena</t>
-  </si>
-  <si>
-    <t>Jaime Alberto Bertin Valenzuela</t>
-  </si>
-  <si>
-    <t>Patricio Ulloa Georgia</t>
-  </si>
-  <si>
-    <t>Gustavo Fernando Valdenegro Rubillo</t>
-  </si>
-  <si>
-    <t>Juan Eduardo Delgado Castro</t>
-  </si>
-  <si>
-    <t>Nora Cuevas Contreras</t>
-  </si>
-  <si>
-    <t>Felipe Guevara Stephens</t>
-  </si>
-  <si>
-    <t>Rodrigo Delgado Mocarquer</t>
-  </si>
-  <si>
-    <t>Nelson Venegas Salazar</t>
-  </si>
-  <si>
-    <t>Sandra Valenzuela Perez</t>
-  </si>
-  <si>
-    <t>Fermin Alejandro Carreño Carreño</t>
-  </si>
-  <si>
-    <t>Ricardo Fuentes Palma</t>
-  </si>
-  <si>
-    <t>Claudio Arturo Guajardo Oyarce</t>
-  </si>
-  <si>
-    <t>Guillermo Reyes Cortez</t>
-  </si>
-  <si>
-    <t>Jose Sabat Marcos</t>
-  </si>
-  <si>
-    <t>Ana María Silva Gutierrez</t>
-  </si>
-  <si>
-    <t>Cristian Balmaceda Undurraga</t>
-  </si>
-  <si>
-    <t>Ruben Jorquera Vidal</t>
-  </si>
-  <si>
-    <t>Fernando Rodriguez Larrain</t>
-  </si>
-  <si>
-    <t>Rodrigo Loyola Morenilla</t>
-  </si>
-  <si>
-    <t>Carlos Javier Schwalm Urzua</t>
-  </si>
-  <si>
-    <t>Felipe Aylwin Lagos</t>
-  </si>
-  <si>
-    <t>Sergio Juan Zarzar Andonie</t>
-  </si>
-  <si>
-    <t>Pablo Astete Mermoud</t>
-  </si>
-  <si>
-    <t>Luis Pradenas Moran</t>
-  </si>
-  <si>
-    <t>Graciela Ortuzar Novoa</t>
-  </si>
-  <si>
-    <t>Luis Reyes Alvarez</t>
-  </si>
-  <si>
-    <t>Rebeca Cofre Calderon</t>
-  </si>
-  <si>
-    <t>Mauricio Alarcon Guzman</t>
+    <t>Sixto Cirilo Garcia Caceres</t>
+  </si>
+  <si>
+    <t>Tatiana Vasquez Barrientos</t>
+  </si>
+  <si>
+    <t>Veronica Rossat Arriagada</t>
+  </si>
+  <si>
+    <t>Virginia Reginato Bozzo</t>
   </si>
   <si>
     <t>Viviana Escarlette Diaz Meza</t>
   </si>
   <si>
-    <t>Juan Elviro Carrasco Contreras</t>
-  </si>
-  <si>
-    <t>Luis Pezoa Alvarez</t>
-  </si>
-  <si>
-    <t>Freddy Ibacache Muñoz</t>
-  </si>
-  <si>
-    <t>Carlos Soto Sotomayor</t>
-  </si>
-  <si>
-    <t>Sergio Echeverria Garcia</t>
-  </si>
-  <si>
-    <t>Virginia Reginato Bozzo</t>
-  </si>
-  <si>
-    <t>Mauricio Viñambres Adasme</t>
-  </si>
-  <si>
-    <t>Sammy Ormazabal Lopez</t>
-  </si>
-  <si>
-    <t>Bernardo Lopez Sierra</t>
-  </si>
-  <si>
-    <t>Rene Alejandro Mardones Valencia</t>
-  </si>
-  <si>
-    <t>Luis Alberto Cuevas Ibarra</t>
-  </si>
-  <si>
-    <t>Emilio Rafael Gonzalez Burgos</t>
-  </si>
-  <si>
-    <t>Ricardo Peña Riquelme</t>
-  </si>
-  <si>
-    <t>Boris Luksic Nieto</t>
-  </si>
-  <si>
-    <t>Isaias Zavala Torres</t>
-  </si>
-  <si>
-    <t>Omar Vera Castro</t>
-  </si>
-  <si>
-    <t>Claudio Zurita Ibarra</t>
-  </si>
-  <si>
-    <t>Héctor Hernan Flores Peñaloza</t>
-  </si>
-  <si>
-    <t>Veronica Rossat Arriagada</t>
-  </si>
-  <si>
-    <t>Santiago Rebolledo Pizarro</t>
-  </si>
-  <si>
-    <t>Luis Alberto Muñoz Perez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arturo Del Carmen Palma Vilches  </t>
-  </si>
-  <si>
-    <t>Mario Olavarria Rodriguez</t>
-  </si>
-  <si>
-    <t>Nelson Barrios Orostegui</t>
-  </si>
-  <si>
-    <t>Erasmo Agustin Valenzuela Santibañez</t>
+    <t>Víctor Toro Leiva</t>
   </si>
   <si>
     <t>Ángel Castro Medina</t>
   </si>
   <si>
-    <t>Luis Nolberto Curumilla Sotomayor</t>
-  </si>
-  <si>
-    <t>Maite Larrondo Laborde</t>
-  </si>
-  <si>
-    <t>Rosa Prieto Valdés</t>
-  </si>
-  <si>
-    <t>Tatiana Vasquez Barrientos</t>
-  </si>
-  <si>
-    <t>Horacio Maldonado Mondaca</t>
-  </si>
-  <si>
-    <t>Víctor Toro Leiva</t>
-  </si>
-  <si>
-    <t>Raul Torrealba Del Pedregal</t>
-  </si>
-  <si>
-    <t>Ruben Rolando Cardenas Gómez</t>
-  </si>
-  <si>
-    <t>Manuel Adolfo Salas Trautmann</t>
-  </si>
-  <si>
-    <t>Ricardo Ritter Rodriguez</t>
-  </si>
-  <si>
-    <t>Gregorio Enrique Valenzuela Abarca</t>
-  </si>
-  <si>
-    <t>Johnny Carrasco Cerda</t>
-  </si>
-  <si>
-    <t>Sixto Cirilo Garcia Caceres</t>
-  </si>
-  <si>
-    <t>Luis Alberto Mella Gajardo</t>
-  </si>
-  <si>
-    <t>Sadi Leonardo Melo Moya</t>
-  </si>
-  <si>
     <t>party</t>
   </si>
   <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>PPD</t>
+  </si>
+  <si>
+    <t>Candidatura Independiente</t>
+  </si>
+  <si>
     <t>Independientes</t>
   </si>
   <si>
     <t>RN</t>
   </si>
   <si>
-    <t>Candidatura Independiente</t>
+    <t>PRSD</t>
   </si>
   <si>
     <t>MAS</t>
   </si>
   <si>
-    <t>PRSD</t>
-  </si>
-  <si>
-    <t>PPD</t>
-  </si>
-  <si>
     <t>UDI</t>
   </si>
   <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC </t>
+  </si>
+  <si>
     <t>PC</t>
-  </si>
-  <si>
-    <t>PS</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC </t>
   </si>
   <si>
     <t>tenure</t>
@@ -652,8 +645,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -675,343 +668,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F97"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F97"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1031,9 +708,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" s="1">
-        <v>261</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1">
         <v>2016</v>
@@ -1051,9 +728,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" s="1">
-        <v>494</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1">
         <v>2016</v>
@@ -1068,10 +745,10 @@
         <v>198</v>
       </c>
       <c r="F3" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1">
         <v>76</v>
       </c>
@@ -1091,9 +768,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" s="1">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="B5" s="1">
         <v>2016</v>
@@ -1105,15 +782,15 @@
         <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F5" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1">
-        <v>1079</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1">
         <v>2016</v>
@@ -1125,15 +802,15 @@
         <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F6" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1">
-        <v>361</v>
+        <v>131</v>
       </c>
       <c r="B7" s="1">
         <v>2016</v>
@@ -1145,15 +822,15 @@
         <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F7" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" s="1">
-        <v>276</v>
+        <v>142</v>
       </c>
       <c r="B8" s="1">
         <v>2016</v>
@@ -1168,12 +845,12 @@
         <v>202</v>
       </c>
       <c r="F8" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="1">
-        <v>1110</v>
+        <v>175</v>
       </c>
       <c r="B9" s="1">
         <v>2016</v>
@@ -1185,13 +862,13 @@
         <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F9" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" s="1">
         <v>179</v>
       </c>
@@ -1205,15 +882,15 @@
         <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F10" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" s="1">
-        <v>436</v>
+        <v>190</v>
       </c>
       <c r="B11" s="1">
         <v>2016</v>
@@ -1228,12 +905,12 @@
         <v>198</v>
       </c>
       <c r="F11" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="1">
-        <v>360</v>
+        <v>196</v>
       </c>
       <c r="B12" s="1">
         <v>2016</v>
@@ -1245,15 +922,15 @@
         <v>110</v>
       </c>
       <c r="E12" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F12" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" s="1">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="B13" s="1">
         <v>2016</v>
@@ -1265,13 +942,13 @@
         <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F13" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" s="1">
         <v>221</v>
       </c>
@@ -1291,9 +968,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" s="1">
-        <v>1063</v>
+        <v>223</v>
       </c>
       <c r="B15" s="1">
         <v>2016</v>
@@ -1305,15 +982,15 @@
         <v>113</v>
       </c>
       <c r="E15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F15" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" s="1">
-        <v>766</v>
+        <v>261</v>
       </c>
       <c r="B16" s="1">
         <v>2016</v>
@@ -1325,15 +1002,15 @@
         <v>114</v>
       </c>
       <c r="E16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F16" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" s="1">
-        <v>536</v>
+        <v>276</v>
       </c>
       <c r="B17" s="1">
         <v>2016</v>
@@ -1345,15 +1022,15 @@
         <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F17" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" s="1">
-        <v>833</v>
+        <v>277</v>
       </c>
       <c r="B18" s="1">
         <v>2016</v>
@@ -1365,15 +1042,15 @@
         <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F18" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="1">
-        <v>472</v>
+        <v>283</v>
       </c>
       <c r="B19" s="1">
         <v>2016</v>
@@ -1385,15 +1062,15 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F19" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="1">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="B20" s="1">
         <v>2016</v>
@@ -1405,15 +1082,15 @@
         <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F20" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" s="1">
-        <v>567</v>
+        <v>307</v>
       </c>
       <c r="B21" s="1">
         <v>2016</v>
@@ -1425,15 +1102,15 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F21" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" s="1">
-        <v>596</v>
+        <v>311</v>
       </c>
       <c r="B22" s="1">
         <v>2016</v>
@@ -1445,15 +1122,15 @@
         <v>120</v>
       </c>
       <c r="E22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F22" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" s="1">
-        <v>849</v>
+        <v>326</v>
       </c>
       <c r="B23" s="1">
         <v>2016</v>
@@ -1465,15 +1142,15 @@
         <v>121</v>
       </c>
       <c r="E23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F23" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" s="1">
-        <v>570</v>
+        <v>328</v>
       </c>
       <c r="B24" s="1">
         <v>2016</v>
@@ -1485,15 +1162,15 @@
         <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F24" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" s="1">
-        <v>975</v>
+        <v>351</v>
       </c>
       <c r="B25" s="1">
         <v>2016</v>
@@ -1505,15 +1182,15 @@
         <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F25" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" s="1">
-        <v>665</v>
+        <v>360</v>
       </c>
       <c r="B26" s="1">
         <v>2016</v>
@@ -1525,15 +1202,15 @@
         <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F26" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" s="1">
-        <v>591</v>
+        <v>361</v>
       </c>
       <c r="B27" s="1">
         <v>2016</v>
@@ -1545,15 +1222,15 @@
         <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F27" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" s="1">
-        <v>487</v>
+        <v>387</v>
       </c>
       <c r="B28" s="1">
         <v>2016</v>
@@ -1565,15 +1242,15 @@
         <v>126</v>
       </c>
       <c r="E28" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F28" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" s="1">
-        <v>928</v>
+        <v>388</v>
       </c>
       <c r="B29" s="1">
         <v>2016</v>
@@ -1585,15 +1262,15 @@
         <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F29" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="1">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B30" s="1">
         <v>2016</v>
@@ -1605,15 +1282,15 @@
         <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F30" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" s="1">
-        <v>606</v>
+        <v>410</v>
       </c>
       <c r="B31" s="1">
         <v>2016</v>
@@ -1625,15 +1302,15 @@
         <v>129</v>
       </c>
       <c r="E31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F31" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" s="1">
-        <v>874</v>
+        <v>433</v>
       </c>
       <c r="B32" s="1">
         <v>2016</v>
@@ -1645,15 +1322,15 @@
         <v>130</v>
       </c>
       <c r="E32" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F32" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="1">
-        <v>307</v>
+        <v>436</v>
       </c>
       <c r="B33" s="1">
         <v>2016</v>
@@ -1665,15 +1342,15 @@
         <v>131</v>
       </c>
       <c r="E33" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F33" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" s="1">
-        <v>1052</v>
+        <v>451</v>
       </c>
       <c r="B34" s="1">
         <v>2016</v>
@@ -1685,15 +1362,15 @@
         <v>132</v>
       </c>
       <c r="E34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F34" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="1">
-        <v>864</v>
+        <v>466</v>
       </c>
       <c r="B35" s="1">
         <v>2016</v>
@@ -1705,15 +1382,15 @@
         <v>133</v>
       </c>
       <c r="E35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F35" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="1">
-        <v>1094</v>
+        <v>472</v>
       </c>
       <c r="B36" s="1">
         <v>2016</v>
@@ -1725,15 +1402,15 @@
         <v>134</v>
       </c>
       <c r="E36" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F36" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" s="1">
-        <v>311</v>
+        <v>487</v>
       </c>
       <c r="B37" s="1">
         <v>2016</v>
@@ -1745,15 +1422,15 @@
         <v>135</v>
       </c>
       <c r="E37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F37" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" s="1">
-        <v>1018</v>
+        <v>494</v>
       </c>
       <c r="B38" s="1">
         <v>2016</v>
@@ -1765,15 +1442,15 @@
         <v>136</v>
       </c>
       <c r="E38" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F38" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" s="1">
-        <v>175</v>
+        <v>514</v>
       </c>
       <c r="B39" s="1">
         <v>2016</v>
@@ -1785,15 +1462,15 @@
         <v>137</v>
       </c>
       <c r="E39" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F39" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="1">
-        <v>404</v>
+        <v>536</v>
       </c>
       <c r="B40" s="1">
         <v>2016</v>
@@ -1805,15 +1482,15 @@
         <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F40" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41" s="1">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B41" s="1">
         <v>2016</v>
@@ -1825,15 +1502,15 @@
         <v>139</v>
       </c>
       <c r="E41" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F41" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42" s="1">
-        <v>49</v>
+        <v>570</v>
       </c>
       <c r="B42" s="1">
         <v>2016</v>
@@ -1845,15 +1522,15 @@
         <v>140</v>
       </c>
       <c r="E42" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F42" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="A43" s="1">
-        <v>196</v>
+        <v>574</v>
       </c>
       <c r="B43" s="1">
         <v>2016</v>
@@ -1865,15 +1542,15 @@
         <v>141</v>
       </c>
       <c r="E43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F43" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44" s="1">
-        <v>1081</v>
+        <v>591</v>
       </c>
       <c r="B44" s="1">
         <v>2016</v>
@@ -1885,15 +1562,15 @@
         <v>142</v>
       </c>
       <c r="E44" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="F44" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45" s="1">
-        <v>328</v>
+        <v>596</v>
       </c>
       <c r="B45" s="1">
         <v>2016</v>
@@ -1905,15 +1582,15 @@
         <v>143</v>
       </c>
       <c r="E45" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F45" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="A46" s="1">
-        <v>1059</v>
+        <v>606</v>
       </c>
       <c r="B46" s="1">
         <v>2016</v>
@@ -1925,15 +1602,15 @@
         <v>144</v>
       </c>
       <c r="E46" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F46" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="A47" s="1">
-        <v>131</v>
+        <v>609</v>
       </c>
       <c r="B47" s="1">
         <v>2016</v>
@@ -1945,15 +1622,15 @@
         <v>145</v>
       </c>
       <c r="E47" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F47" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="A48" s="1">
-        <v>305</v>
+        <v>665</v>
       </c>
       <c r="B48" s="1">
         <v>2016</v>
@@ -1965,15 +1642,15 @@
         <v>146</v>
       </c>
       <c r="E48" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F48" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="A49" s="1">
-        <v>1109</v>
+        <v>668</v>
       </c>
       <c r="B49" s="1">
         <v>2016</v>
@@ -1985,15 +1662,15 @@
         <v>147</v>
       </c>
       <c r="E49" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F49" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="1">
-        <v>906</v>
+        <v>670</v>
       </c>
       <c r="B50" s="1">
         <v>2016</v>
@@ -2005,15 +1682,15 @@
         <v>148</v>
       </c>
       <c r="E50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F50" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="1">
-        <v>707</v>
+        <v>672</v>
       </c>
       <c r="B51" s="1">
         <v>2016</v>
@@ -2025,15 +1702,15 @@
         <v>149</v>
       </c>
       <c r="E51" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F51" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="1">
-        <v>387</v>
+        <v>703</v>
       </c>
       <c r="B52" s="1">
         <v>2016</v>
@@ -2045,15 +1722,15 @@
         <v>150</v>
       </c>
       <c r="E52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F52" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="1">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B53" s="1">
         <v>2016</v>
@@ -2065,15 +1742,15 @@
         <v>151</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F53" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="A54" s="1">
-        <v>997</v>
+        <v>707</v>
       </c>
       <c r="B54" s="1">
         <v>2016</v>
@@ -2085,15 +1762,15 @@
         <v>152</v>
       </c>
       <c r="E54" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F54" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="A55" s="1">
-        <v>807</v>
+        <v>709</v>
       </c>
       <c r="B55" s="1">
         <v>2016</v>
@@ -2105,15 +1782,15 @@
         <v>153</v>
       </c>
       <c r="E55" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F55" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="A56" s="1">
-        <v>1155</v>
+        <v>723</v>
       </c>
       <c r="B56" s="1">
         <v>2016</v>
@@ -2125,15 +1802,15 @@
         <v>154</v>
       </c>
       <c r="E56" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F56" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="1">
-        <v>609</v>
+        <v>724</v>
       </c>
       <c r="B57" s="1">
         <v>2016</v>
@@ -2145,15 +1822,15 @@
         <v>155</v>
       </c>
       <c r="E57" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F57" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="1">
-        <v>705</v>
+        <v>766</v>
       </c>
       <c r="B58" s="1">
         <v>2016</v>
@@ -2165,15 +1842,15 @@
         <v>156</v>
       </c>
       <c r="E58" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F58" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="A59" s="1">
-        <v>351</v>
+        <v>789</v>
       </c>
       <c r="B59" s="1">
         <v>2016</v>
@@ -2185,15 +1862,15 @@
         <v>157</v>
       </c>
       <c r="E59" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F59" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="1">
-        <v>142</v>
+        <v>807</v>
       </c>
       <c r="B60" s="1">
         <v>2016</v>
@@ -2205,15 +1882,15 @@
         <v>158</v>
       </c>
       <c r="E60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F60" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="A61" s="1">
-        <v>1108</v>
+        <v>815</v>
       </c>
       <c r="B61" s="1">
         <v>2016</v>
@@ -2225,15 +1902,15 @@
         <v>159</v>
       </c>
       <c r="E61" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="F61" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="A62" s="1">
-        <v>1153</v>
+        <v>833</v>
       </c>
       <c r="B62" s="1">
         <v>2016</v>
@@ -2245,15 +1922,15 @@
         <v>160</v>
       </c>
       <c r="E62" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F62" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" s="1">
-        <v>815</v>
+        <v>849</v>
       </c>
       <c r="B63" s="1">
         <v>2016</v>
@@ -2265,15 +1942,15 @@
         <v>161</v>
       </c>
       <c r="E63" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F63" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64" s="1">
-        <v>1089</v>
+        <v>854</v>
       </c>
       <c r="B64" s="1">
         <v>2016</v>
@@ -2285,15 +1962,15 @@
         <v>162</v>
       </c>
       <c r="E64" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F64" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" s="1">
-        <v>93</v>
+        <v>864</v>
       </c>
       <c r="B65" s="1">
         <v>2016</v>
@@ -2305,15 +1982,15 @@
         <v>163</v>
       </c>
       <c r="E65" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F65" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66" s="1">
-        <v>1005</v>
+        <v>874</v>
       </c>
       <c r="B66" s="1">
         <v>2016</v>
@@ -2325,15 +2002,15 @@
         <v>164</v>
       </c>
       <c r="E66" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F66" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67" s="1">
-        <v>668</v>
+        <v>888</v>
       </c>
       <c r="B67" s="1">
         <v>2016</v>
@@ -2345,15 +2022,15 @@
         <v>165</v>
       </c>
       <c r="E67" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F67" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="A68" s="1">
-        <v>277</v>
+        <v>906</v>
       </c>
       <c r="B68" s="1">
         <v>2016</v>
@@ -2365,15 +2042,15 @@
         <v>166</v>
       </c>
       <c r="E68" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F68" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" s="1">
-        <v>1023</v>
+        <v>928</v>
       </c>
       <c r="B69" s="1">
         <v>2016</v>
@@ -2385,15 +2062,15 @@
         <v>167</v>
       </c>
       <c r="E69" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F69" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70" s="1">
-        <v>101</v>
+        <v>975</v>
       </c>
       <c r="B70" s="1">
         <v>2016</v>
@@ -2405,15 +2082,15 @@
         <v>168</v>
       </c>
       <c r="E70" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="F70" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" s="1">
-        <v>466</v>
+        <v>990</v>
       </c>
       <c r="B71" s="1">
         <v>2016</v>
@@ -2425,15 +2102,15 @@
         <v>169</v>
       </c>
       <c r="E71" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F71" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72" s="1">
-        <v>888</v>
+        <v>997</v>
       </c>
       <c r="B72" s="1">
         <v>2016</v>
@@ -2445,15 +2122,15 @@
         <v>170</v>
       </c>
       <c r="E72" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F72" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73" s="1">
-        <v>190</v>
+        <v>1005</v>
       </c>
       <c r="B73" s="1">
         <v>2016</v>
@@ -2465,15 +2142,15 @@
         <v>171</v>
       </c>
       <c r="E73" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F73" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="A74" s="1">
-        <v>451</v>
+        <v>1018</v>
       </c>
       <c r="B74" s="1">
         <v>2016</v>
@@ -2485,15 +2162,15 @@
         <v>172</v>
       </c>
       <c r="E74" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F74" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75" s="1">
-        <v>1148</v>
+        <v>1023</v>
       </c>
       <c r="B75" s="1">
         <v>2016</v>
@@ -2505,15 +2182,15 @@
         <v>173</v>
       </c>
       <c r="E75" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F75" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="A76" s="1">
-        <v>1100</v>
+        <v>1024</v>
       </c>
       <c r="B76" s="1">
         <v>2016</v>
@@ -2525,15 +2202,15 @@
         <v>174</v>
       </c>
       <c r="E76" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F76" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77" s="1">
-        <v>672</v>
+        <v>1052</v>
       </c>
       <c r="B77" s="1">
         <v>2016</v>
@@ -2545,15 +2222,15 @@
         <v>175</v>
       </c>
       <c r="E77" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F77" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="A78" s="1">
-        <v>72</v>
+        <v>1059</v>
       </c>
       <c r="B78" s="1">
         <v>2016</v>
@@ -2565,15 +2242,15 @@
         <v>176</v>
       </c>
       <c r="E78" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F78" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="A79" s="1">
-        <v>789</v>
+        <v>1063</v>
       </c>
       <c r="B79" s="1">
         <v>2016</v>
@@ -2585,15 +2262,15 @@
         <v>177</v>
       </c>
       <c r="E79" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F79" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="A80" s="1">
-        <v>854</v>
+        <v>1077</v>
       </c>
       <c r="B80" s="1">
         <v>2016</v>
@@ -2605,15 +2282,15 @@
         <v>178</v>
       </c>
       <c r="E80" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F80" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="A81" s="1">
-        <v>283</v>
+        <v>1079</v>
       </c>
       <c r="B81" s="1">
         <v>2016</v>
@@ -2625,15 +2302,15 @@
         <v>179</v>
       </c>
       <c r="E81" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F81" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="A82" s="1">
-        <v>1182</v>
+        <v>1081</v>
       </c>
       <c r="B82" s="1">
         <v>2016</v>
@@ -2645,15 +2322,15 @@
         <v>180</v>
       </c>
       <c r="E82" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F82" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="A83" s="1">
-        <v>703</v>
+        <v>1084</v>
       </c>
       <c r="B83" s="1">
         <v>2016</v>
@@ -2665,15 +2342,15 @@
         <v>181</v>
       </c>
       <c r="E83" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F83" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84" s="1">
-        <v>723</v>
+        <v>1085</v>
       </c>
       <c r="B84" s="1">
         <v>2016</v>
@@ -2685,15 +2362,15 @@
         <v>182</v>
       </c>
       <c r="E84" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F84" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="A85" s="1">
-        <v>1077</v>
+        <v>1089</v>
       </c>
       <c r="B85" s="1">
         <v>2016</v>
@@ -2708,12 +2385,12 @@
         <v>198</v>
       </c>
       <c r="F85" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="A86" s="1">
-        <v>1135</v>
+        <v>1094</v>
       </c>
       <c r="B86" s="1">
         <v>2016</v>
@@ -2725,15 +2402,15 @@
         <v>184</v>
       </c>
       <c r="E86" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F86" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="A87" s="1">
-        <v>433</v>
+        <v>1100</v>
       </c>
       <c r="B87" s="1">
         <v>2016</v>
@@ -2745,15 +2422,15 @@
         <v>185</v>
       </c>
       <c r="E87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F87" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="A88" s="1">
-        <v>1166</v>
+        <v>1108</v>
       </c>
       <c r="B88" s="1">
         <v>2016</v>
@@ -2765,15 +2442,15 @@
         <v>186</v>
       </c>
       <c r="E88" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F88" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="A89" s="1">
-        <v>990</v>
+        <v>1109</v>
       </c>
       <c r="B89" s="1">
         <v>2016</v>
@@ -2785,15 +2462,15 @@
         <v>187</v>
       </c>
       <c r="E89" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F89" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="A90" s="1">
-        <v>1084</v>
+        <v>1110</v>
       </c>
       <c r="B90" s="1">
         <v>2016</v>
@@ -2805,15 +2482,15 @@
         <v>188</v>
       </c>
       <c r="E90" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F90" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="A91" s="1">
-        <v>724</v>
+        <v>1123</v>
       </c>
       <c r="B91" s="1">
         <v>2016</v>
@@ -2825,15 +2502,15 @@
         <v>189</v>
       </c>
       <c r="E91" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F91" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="A92" s="1">
-        <v>1024</v>
+        <v>1135</v>
       </c>
       <c r="B92" s="1">
         <v>2016</v>
@@ -2845,15 +2522,15 @@
         <v>190</v>
       </c>
       <c r="E92" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F92" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="A93" s="1">
-        <v>388</v>
+        <v>1148</v>
       </c>
       <c r="B93" s="1">
         <v>2016</v>
@@ -2865,15 +2542,15 @@
         <v>191</v>
       </c>
       <c r="E93" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F93" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="A94" s="1">
-        <v>514</v>
+        <v>1153</v>
       </c>
       <c r="B94" s="1">
         <v>2016</v>
@@ -2885,15 +2562,15 @@
         <v>192</v>
       </c>
       <c r="E94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F94" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="A95" s="1">
-        <v>1123</v>
+        <v>1155</v>
       </c>
       <c r="B95" s="1">
         <v>2016</v>
@@ -2905,15 +2582,15 @@
         <v>193</v>
       </c>
       <c r="E95" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F95" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="A96" s="1">
-        <v>670</v>
+        <v>1166</v>
       </c>
       <c r="B96" s="1">
         <v>2016</v>
@@ -2925,15 +2602,15 @@
         <v>194</v>
       </c>
       <c r="E96" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F96" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="A97" s="1">
-        <v>1085</v>
+        <v>1182</v>
       </c>
       <c r="B97" s="1">
         <v>2016</v>
@@ -2945,13 +2622,12 @@
         <v>195</v>
       </c>
       <c r="E97" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F97" s="1">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>